--- a/Week 2/Frequency Distribution.xlsx
+++ b/Week 2/Frequency Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaye\OneDrive\Documents\GitHub\IT365\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC7B350-781A-4B77-9411-62BA70403160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F0EDB7-0A87-49C9-B879-CBFB211FB3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDD6BDB-61FE-42AA-9BAF-7EE57762FD0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{0DDD6BDB-61FE-42AA-9BAF-7EE57762FD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantitative" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,13 @@
     <definedName name="_xlchart.v1.24" hidden="1">'Histogram of Quanti'!$A$2:$A$7</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">'Histogram of Quanti'!$B$1</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">'Histogram of Quanti'!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Histogram of Quanti'!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Histogram of Quanti'!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Histogram of Quanti'!$B$2:$B$7</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Quantitative!$E$5:$E$9</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Histogram of Quanti'!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Histogram of Quanti'!$B$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Histogram of Quanti'!$B$2:$B$7</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Quantitative!$E$5:$G$5</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Quantitative!$E$6:$G$6</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Quantitative!$F$4</definedName>
@@ -61,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
   <si>
     <t>Respondents</t>
   </si>
@@ -1568,10 +1574,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1582,7 +1588,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B2E1B9F1-B57C-423D-A0EF-C753089815E4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3834,16 +3840,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3879,7 +3885,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7629525" y="4133850"/>
+              <a:off x="4371975" y="4162425"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4811,7 +4817,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5168,7 +5174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -5183,12 +5189,6 @@
       <c r="B24" s="4">
         <v>8</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -5197,12 +5197,6 @@
       <c r="B25" s="5">
         <v>7</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="14">
-        <v>4</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -5211,12 +5205,6 @@
       <c r="B26" s="4">
         <v>8</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="14">
-        <v>31</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -5225,12 +5213,6 @@
       <c r="B27" s="5">
         <v>8</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="14">
-        <v>14</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -5239,12 +5221,6 @@
       <c r="B28" s="4">
         <v>7</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="14">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -5253,25 +5229,13 @@
       <c r="B29" s="5">
         <v>8</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="4">
         <v>7</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5491,8 +5455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C9EA10-2094-4CCD-8361-336E4F59457C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,7 +6038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE850E8E-EFF4-4EC1-8053-CFCC548CF3A5}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
@@ -6176,4 +6140,217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081B1CC4F592A944BA6901A432C12B1FB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f6177acfa71a4fad89791e6b1abeee8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ae3afbf-3a2b-4cb1-bccd-7374d6ff3544" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e391613442318061ed67542432d7bfa" ns2:_="">
+    <xsd:import namespace="6ae3afbf-3a2b-4cb1-bccd-7374d6ff3544"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:ReferenceId" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ae3afbf-3a2b-4cb1-bccd-7374d6ff3544" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="ReferenceId" ma:index="8" nillable="true" ma:displayName="ReferenceId" ma:indexed="true" ma:internalName="ReferenceId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="6ae3afbf-3a2b-4cb1-bccd-7374d6ff3544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7350F02-28A5-4957-A954-6081623429F0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B57848-BAB2-4D88-8676-FFE6A1E64264}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5411F2-50C4-45AC-B7B4-390A8C8510E9}"/>
 </file>